--- a/backend/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>98c64e27-deb1-4320-bb65-c4746ce71de7</t>
+    <t>61b7f809-da7e-44bc-aec5-f59ea76fd0c0</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/backend/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>61b7f809-da7e-44bc-aec5-f59ea76fd0c0</t>
+    <t>e2eb5971-0383-41ba-8e43-3db9e0c0be76</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/backend/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>e2eb5971-0383-41ba-8e43-3db9e0c0be76</t>
+    <t>7f346aa1-1edf-4db8-9e93-b6282a07cce2</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/backend/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>7f346aa1-1edf-4db8-9e93-b6282a07cce2</t>
+    <t>ddca1628-72d9-47a0-8d5c-5dc56f7008bf</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/backend/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>ddca1628-72d9-47a0-8d5c-5dc56f7008bf</t>
+    <t>780cbaea-ed62-4e21-b1f2-5d42ceb5f68b</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/backend/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>780cbaea-ed62-4e21-b1f2-5d42ceb5f68b</t>
+    <t>62bcef93-17d9-4e9a-ab8f-6ea69c06b1a9</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>
